--- a/testing_combination.xlsx
+++ b/testing_combination.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>Staging</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,36 +448,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Staging</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Firefox</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Prod</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Edge</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chrome</t>
         </is>
       </c>
     </row>
